--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/CCDQCATxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/CCDQCATxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>CCDQCA</t>
-  </si>
-  <si>
-    <t>13.0170910949533</t>
-  </si>
-  <si>
-    <t>-0.793729013240622</t>
-  </si>
-  <si>
-    <t>0.511602378653933</t>
-  </si>
-  <si>
-    <t>-1.87309886401256</t>
-  </si>
-  <si>
-    <t>7.10401948055652</t>
-  </si>
-  <si>
-    <t>7.2148429389901</t>
-  </si>
-  <si>
-    <t>-8.35971584730765</t>
-  </si>
-  <si>
-    <t>-2.84448541794262</t>
-  </si>
-  <si>
-    <t>-1.90545551282413</t>
-  </si>
-  <si>
-    <t>-8.5582386370295</t>
-  </si>
-  <si>
-    <t>-2.25717795560178</t>
-  </si>
-  <si>
-    <t>-0.918318223507796</t>
-  </si>
-  <si>
-    <t>2.22733304390745</t>
-  </si>
-  <si>
-    <t>-1.02607922062801</t>
-  </si>
-  <si>
-    <t>-2.49937363590253</t>
-  </si>
-  <si>
-    <t>-1.96016319009345</t>
-  </si>
-  <si>
-    <t>-1.10902680009613</t>
-  </si>
-  <si>
-    <t>-0.0420154427414161</t>
-  </si>
-  <si>
-    <t>0.104600296426597</t>
-  </si>
-  <si>
-    <t>-2.84557748606711</t>
-  </si>
-  <si>
-    <t>0.369457704379542</t>
-  </si>
-  <si>
-    <t>-2.60745745215019</t>
-  </si>
-  <si>
-    <t>-2.87585704432279</t>
-  </si>
-  <si>
-    <t>-5.42231868101972</t>
-  </si>
-  <si>
-    <t>2.44981729129088</t>
-  </si>
-  <si>
-    <t>-1.01936221775141</t>
-  </si>
-  <si>
-    <t>-4.19892828928128</t>
-  </si>
-  <si>
-    <t>-3.10860555119167</t>
-  </si>
-  <si>
-    <t>-1.11479068406108</t>
-  </si>
-  <si>
-    <t>0.592247131964427</t>
-  </si>
-  <si>
-    <t>2.01613853615973</t>
-  </si>
-  <si>
-    <t>-2.79848395639695</t>
-  </si>
-  <si>
-    <t>-6.58488540400045</t>
-  </si>
-  <si>
-    <t>-4.46702573860306</t>
-  </si>
-  <si>
-    <t>0.768295121938692</t>
-  </si>
-  <si>
-    <t>-2.60382239827412</t>
-  </si>
-  <si>
-    <t>-1.90996342102154</t>
-  </si>
-  <si>
-    <t>-1.2942936488072</t>
-  </si>
-  <si>
-    <t>-2.85503302571426</t>
-  </si>
-  <si>
-    <t>-0.236388844200278</t>
-  </si>
-  <si>
-    <t>-3.50416181718127</t>
-  </si>
-  <si>
-    <t>-6.1027655151196</t>
-  </si>
-  <si>
-    <t>1.5375038728702</t>
-  </si>
-  <si>
-    <t>-2.52294024591157</t>
-  </si>
-  <si>
-    <t>-3.50947621289687</t>
-  </si>
-  <si>
-    <t>2.6126429921969</t>
-  </si>
-  <si>
-    <t>-1.85851708379658</t>
-  </si>
-  <si>
-    <t>-1.75089471841113</t>
-  </si>
-  <si>
-    <t>-7.73325742955241</t>
-  </si>
-  <si>
-    <t>4.21321560035562</t>
-  </si>
-  <si>
-    <t>-6.3182512479257</t>
-  </si>
-  <si>
-    <t>-5.10895335818606</t>
-  </si>
-  <si>
-    <t>-7.43137066877829</t>
-  </si>
-  <si>
-    <t>-2.06942072666561</t>
-  </si>
-  <si>
-    <t>12.6695091911209</t>
-  </si>
-  <si>
-    <t>8.45934007539012</t>
-  </si>
-  <si>
-    <t>1.33674703734061</t>
-  </si>
-  <si>
-    <t>15.5294528478912</t>
-  </si>
-  <si>
-    <t>-7.56417963870146</t>
-  </si>
-  <si>
-    <t>-0.064776146405336</t>
-  </si>
-  <si>
-    <t>-2.35695910127527</t>
-  </si>
-  <si>
-    <t>17.3278772031866</t>
-  </si>
-  <si>
-    <t>-12.0893217629362</t>
-  </si>
-  <si>
-    <t>-2.90254663282175</t>
-  </si>
-  <si>
-    <t>-1.1255186837015</t>
-  </si>
-  <si>
-    <t>9.64098218436675</t>
-  </si>
-  <si>
-    <t>-5.05394299858435</t>
-  </si>
-  <si>
-    <t>-6.74150603150349</t>
-  </si>
-  <si>
-    <t>1.8660926457797</t>
-  </si>
-  <si>
-    <t>15.1203020292625</t>
-  </si>
-  <si>
-    <t>-4.79380728693124</t>
-  </si>
-  <si>
-    <t>-2.74016048892912</t>
-  </si>
-  <si>
-    <t>-9.17777937090588</t>
-  </si>
-  <si>
-    <t>13.63183982469</t>
-  </si>
-  <si>
-    <t>-1.6556660939147</t>
-  </si>
-  <si>
-    <t>-0.1942457364718</t>
-  </si>
-  <si>
-    <t>-13.1169186541618</t>
-  </si>
-  <si>
-    <t>-23.4327941527149</t>
-  </si>
-  <si>
-    <t>10.2017681759947</t>
-  </si>
-  <si>
-    <t>12.8171674868921</t>
-  </si>
-  <si>
-    <t>-3.86352551147442</t>
-  </si>
-  <si>
-    <t>14.7496701017741</t>
-  </si>
-  <si>
-    <t>4.0460946550381</t>
-  </si>
-  <si>
-    <t>11.9680351438276</t>
+    <t>0.150142388347518</t>
+  </si>
+  <si>
+    <t>28.6128015599618</t>
+  </si>
+  <si>
+    <t>14.1102534054642</t>
+  </si>
+  <si>
+    <t>-15.3557357764559</t>
+  </si>
+  <si>
+    <t>-30.6687682987459</t>
+  </si>
+  <si>
+    <t>64.6628315821387</t>
+  </si>
+  <si>
+    <t>-39.8038302484146</t>
+  </si>
+  <si>
+    <t>-34.3632004238879</t>
+  </si>
+  <si>
+    <t>6.30469922967143</t>
+  </si>
+  <si>
+    <t>41.1539462261849</t>
+  </si>
+  <si>
+    <t>-18.0554376205554</t>
+  </si>
+  <si>
+    <t>-79.0088076708633</t>
+  </si>
+  <si>
+    <t>65.3908472979714</t>
+  </si>
+  <si>
+    <t>1.46621335361385</t>
+  </si>
+  <si>
+    <t>-11.575266202167</t>
+  </si>
+  <si>
+    <t>-37.7373845692312</t>
+  </si>
+  <si>
+    <t>65.1140686871435</t>
+  </si>
+  <si>
+    <t>27.0298301803446</t>
+  </si>
+  <si>
+    <t>116.641093659345</t>
+  </si>
+  <si>
+    <t>-71.1306482302842</t>
+  </si>
+  <si>
+    <t>-81.9794280971633</t>
+  </si>
+  <si>
+    <t>-85.7173257610678</t>
+  </si>
+  <si>
+    <t>-85.4699483487292</t>
+  </si>
+  <si>
+    <t>3.22059984883225</t>
+  </si>
+  <si>
+    <t>48.5933078184532</t>
+  </si>
+  <si>
+    <t>-59.2033965419482</t>
+  </si>
+  <si>
+    <t>201.45395533617</t>
+  </si>
+  <si>
+    <t>-53.8092307261666</t>
+  </si>
+  <si>
+    <t>-100.027371237776</t>
+  </si>
+  <si>
+    <t>12.5244065827744</t>
+  </si>
+  <si>
+    <t>-136.762545568861</t>
+  </si>
+  <si>
+    <t>21.6572197716768</t>
+  </si>
+  <si>
+    <t>-45.1858878452464</t>
+  </si>
+  <si>
+    <t>-45.1127188310977</t>
+  </si>
+  <si>
+    <t>-40.6461337013315</t>
+  </si>
+  <si>
+    <t>-67.8391523584369</t>
+  </si>
+  <si>
+    <t>-27.584975104873</t>
+  </si>
+  <si>
+    <t>-60.0935807144959</t>
+  </si>
+  <si>
+    <t>-25.8981393055811</t>
+  </si>
+  <si>
+    <t>-27.9484114282393</t>
+  </si>
+  <si>
+    <t>28.5504106658923</t>
+  </si>
+  <si>
+    <t>-44.7566866619792</t>
+  </si>
+  <si>
+    <t>-38.5047940566673</t>
+  </si>
+  <si>
+    <t>-66.8282280663799</t>
+  </si>
+  <si>
+    <t>-1.3546264744017</t>
+  </si>
+  <si>
+    <t>-24.7424653883596</t>
+  </si>
+  <si>
+    <t>-62.4480515891607</t>
+  </si>
+  <si>
+    <t>-33.0197194709947</t>
+  </si>
+  <si>
+    <t>-63.0387052237249</t>
+  </si>
+  <si>
+    <t>-36.5438679106624</t>
+  </si>
+  <si>
+    <t>-14.4684448840251</t>
+  </si>
+  <si>
+    <t>66.16331024117</t>
+  </si>
+  <si>
+    <t>16.8769749915638</t>
+  </si>
+  <si>
+    <t>-22.9638488858834</t>
+  </si>
+  <si>
+    <t>15.1224303504583</t>
+  </si>
+  <si>
+    <t>23.3126398859541</t>
+  </si>
+  <si>
+    <t>25.5204018049301</t>
+  </si>
+  <si>
+    <t>-7.89793631793606</t>
+  </si>
+  <si>
+    <t>32.4370409122529</t>
+  </si>
+  <si>
+    <t>-42.4539174643314</t>
+  </si>
+  <si>
+    <t>-21.603961120256</t>
+  </si>
+  <si>
+    <t>-23.4472654691798</t>
+  </si>
+  <si>
+    <t>11.0214135479366</t>
+  </si>
+  <si>
+    <t>-30.0823730457694</t>
+  </si>
+  <si>
+    <t>-83.0488541247008</t>
+  </si>
+  <si>
+    <t>6.47972844758721</t>
+  </si>
+  <si>
+    <t>-74.1997661011188</t>
+  </si>
+  <si>
+    <t>-48.8366708541781</t>
+  </si>
+  <si>
+    <t>-38.9098588449532</t>
+  </si>
+  <si>
+    <t>-20.7229742757088</t>
+  </si>
+  <si>
+    <t>-18.7428006415047</t>
+  </si>
+  <si>
+    <t>11.9558107664457</t>
+  </si>
+  <si>
+    <t>-38.0667313871238</t>
+  </si>
+  <si>
+    <t>-18.6750543911651</t>
+  </si>
+  <si>
+    <t>-8.47169224686922</t>
+  </si>
+  <si>
+    <t>-25.8715600466581</t>
+  </si>
+  <si>
+    <t>43.5899818353952</t>
+  </si>
+  <si>
+    <t>660.771357910806</t>
+  </si>
+  <si>
+    <t>101.681698458549</t>
+  </si>
+  <si>
+    <t>-308.912011899472</t>
+  </si>
+  <si>
+    <t>271.497405104031</t>
+  </si>
+  <si>
+    <t>324.965481686115</t>
+  </si>
+  <si>
+    <t>-119.761182612412</t>
+  </si>
+  <si>
+    <t>274.927791673678</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
